--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/101BetzmarkBrokenData.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/101BetzmarkBrokenData.xlsx
@@ -6,16 +6,16 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="CopyGames" r:id="rId5" sheetId="5"/>
-    <sheet name="ProvidersBrokenImgWeb" r:id="rId4" sheetId="6"/>
-    <sheet name="GamesBrokenURL" r:id="rId6" sheetId="7"/>
-    <sheet name="GamesBrokenImgWeb" r:id="rId7" sheetId="8"/>
+    <sheet name="CopyGames" r:id="rId8" sheetId="9"/>
+    <sheet name="ProvidersBrokenImgWeb" r:id="rId9" sheetId="10"/>
+    <sheet name="GamesBrokenURL" r:id="rId6" sheetId="11"/>
+    <sheet name="GamesBrokenImgWeb" r:id="rId7" sheetId="12"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="706">
   <si>
     <t>French Roulette</t>
   </si>
@@ -1650,6 +1650,489 @@
   </si>
   <si>
     <t>2994  Game ID = 4739  Game Provider Name = Evoplay   Game Name =  Treasure-snipes: Christmas  cod = 403   src = https://agstatic.com/games/evoplay/treasure_snipes_?hristmas.jpg</t>
+  </si>
+  <si>
+    <t>142 ID=3228 Provider=GameArt Name=African Sunset cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>143 ID=3189 Provider=GameArt Name=African Sunset 2 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>144 ID=2167 Provider=Betsoft Name=After Night Falls cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>154 ID=3250 Provider=GameArt Name=Aladdin’s Quest cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>161 ID=3208 Provider=GameArt Name=Alibaba's Riches cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>167 ID=2215 Provider=Betsoft Name=Alkemor'sTower cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>188 ID=2225 Provider=Betsoft Name=American Blackjack cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>208 ID=3132 Provider=GameArt Name=AncientGong cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>211 ID=3245 Provider=GameArt Name=Angry Dogs cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>215 ID=3191 Provider=GameArt Name=Apocalypse Quest cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>233 ID=2174 Provider=Betsoft Name=Arrival cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>242 ID=3229 Provider=GameArt Name=Atlantis World cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>243 ID=3138 Provider=GameArt Name=AtlantisWorld cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>248 ID=3257 Provider=GameArt Name=Awesome 7’s cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>250 ID=3201 Provider=GameArt Name=Azrabah Wishes cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>251 ID=3179 Provider=GameArt Name=AzrabahWishes cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>306 ID=2224 Provider=Betsoft Name=Barbary Coast cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>317 ID=3199 Provider=GameArt Name=Battle for Atlantis cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>319 ID=3177 Provider=GameArt Name=BattleforAtlantis cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>359 ID=2219 Provider=Betsoft Name=Birds cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>377 ID=3227 Provider=GameArt Name=BlackJack cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>381 ID=3252 Provider=GameArt Name=Blackjack Side Bets cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>420 ID=3241 Provider=GameArt Name=Book of Cupigs cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>434 ID=3247 Provider=GameArt Name=Book of Museum cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>435 ID=3200 Provider=GameArt Name=Book of Oziris cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>461 ID=2166 Provider=Betsoft Name=Boomanji cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>499 ID=3211 Provider=GameArt Name=Burning Flame cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>534 ID=3155 Provider=GameArt Name=Caligula cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>535 ID=3236 Provider=GameArt Name=Caligula cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>552 ID=4534 Provider=Yggdrasil Name=Cannonade! cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>554 ID=3202 Provider=GameArt Name=Captain Candy cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>556 ID=3178 Provider=GameArt Name=CaptainCandy cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>561 ID=2235 Provider=Betsoft Name=Caribbean Poker cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>582 ID=1306 Provider=BGaming Name=Casino Hold'em cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>587 ID=3237 Provider=GameArt Name=Castle Blood cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>616 ID=3197 Provider=GameArt Name=Chili Quest cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>626 ID=3221 Provider=GameArt Name=Chinese Zodiac cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>642 ID=3180 Provider=GameArt Name=CircusofHorror cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>708 ID=3234 Provider=GameArt Name=Crystal Mystery cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>714 ID=3139 Provider=GameArt Name=CrystalMystery cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>731 ID=3125 Provider=GameArt Name=DancingLion cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>743 ID=3233 Provider=GameArt Name=DaVinci Codex cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>744 ID=3192 Provider=GameArt Name=Dawn Of Olympus cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>754 ID=2269 Provider=Betsoft Name=Deuces Wild cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>765 ID=3255 Provider=GameArt Name=Diamond Magic Deluxe cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>792 ID=3223 Provider=GameArt Name=Dolphin's Dream cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>802 ID=1347 Provider=BGaming Name=Double Exposure cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>809 ID=2164 Provider=Betsoft Name=Dr. Jekyll &amp; Mr. Hyde cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>824 ID=3210 Provider=GameArt Name=Dragon Lady cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>832 ID=3196 Provider=GameArt Name=Dragon Whisperer cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>836 ID=3121 Provider=GameArt Name=DragonKing cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>872 ID=3256 Provider=GameArt Name=Dynamite Fruits cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>873 ID=3244 Provider=GameArt Name=Dynamite Fruits Deluxe cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>896 ID=3216 Provider=GameArt Name=El Toreo cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>906 ID=3215 Provider=GameArt Name=Emperors Wealth cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>908 ID=3165 Provider=GameArt Name=EmperorsWealth cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>923 ID=2226 Provider=Betsoft Name=European Roulette cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>931 ID=2161 Provider=Betsoft Name=Event Horizon cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>938 ID=3128 Provider=GameArt Name=ExplosiveReels cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>943 ID=5563 Provider=PlayTech Name=Extreme Fruits Ultimate cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>952 ID=2195 Provider=Betsoft Name=Fa-FaTwins cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>1003 ID=3235 Provider=GameArt Name=Five Star Luxury cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1010 ID=3219 Provider=GameArt Name=Flaming Reels cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1053 ID=3153 Provider=GameArt Name=FortuneLions cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1054 ID=3130 Provider=GameArt Name=FortunePanda cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1062 ID=3220 Provider=GameArt Name=Four Symbols cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1063 ID=2217 Provider=Betsoft Name=Frankenslot'sMonster cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>1079 ID=3261 Provider=GameArt Name=Frozen Joker cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1125 ID=2151 Provider=Betsoft Name=FruitZen cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>1163 ID=2179 Provider=Betsoft Name=Genie'sFortune cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>1174 ID=2180 Provider=Betsoft Name=Gladiator cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>1243 ID=3156 Provider=GameArt Name=GoldenDragon cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1246 ID=3129 Provider=GameArt Name=GoldOfRa cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1257 ID=2213 Provider=Betsoft Name=Great 88 cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>1278 ID=2165 Provider=Betsoft Name=Gypsy Rose cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>1306 ID=3187 Provider=GameArt Name=Hawaiian Christmas cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1310 ID=4729 Provider=Evoplay Name=Heads &amp; Tails cod=0 description=null ResponseObject=Transactions ID failed value</t>
+  </si>
+  <si>
+    <t>1315 ID=2178 Provider=Betsoft Name=Heist cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>1330 ID=1313 Provider=BGaming Name=Hi-Lo Switch cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>1397 ID=2177 Provider=Betsoft Name=HouseofFun cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>1446 ID=1351 Provider=BGaming Name=Jacks or Better cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>1452 ID=3150 Provider=GameArt Name=JadeTreasure cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1475 ID=3258 Provider=GameArt Name=Jingle Jokers cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1478 ID=3222 Provider=GameArt Name=Joan Of Arc cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1517 ID=3239 Provider=GameArt Name=Jumpin Pot cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1547 ID=3218 Provider=GameArt Name=King Of Monkeys cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1552 ID=3152 Provider=GameArt Name=KingOfWealth cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1556 ID=3231 Provider=GameArt Name=Kitty Twins cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1571 ID=3124 Provider=GameArt Name=LadyLuck cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1628 ID=2172 Provider=Betsoft Name=Lost cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>1633 ID=4744 Provider=Evoplay Name=Lottery Ticket cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1654 ID=3195 Provider=GameArt Name=Lucky Coins cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1680 ID=2268 Provider=Betsoft Name=Lucky Seven cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>1690 ID=3157 Provider=GameArt Name=LuckyBabies cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1696 ID=3260 Provider=GameArt Name=Lunar Rabbit cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1704 ID=2182 Provider=Betsoft Name=MadderScientist cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>1712 ID=3158 Provider=GameArt Name=Magic Dragon cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1759 ID=3131 Provider=GameArt Name=MagicUnicorn cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1765 ID=2188 Provider=Betsoft Name=Mamma Mia cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>1770 ID=3188 Provider=GameArt Name=Mariachi Fiesta cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1771 ID=4453 Provider=Yggdrasil Name=Martian Miner Infinity Reels cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1840 ID=3142 Provider=GameArt Name=Money Farm cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1841 ID=3160 Provider=GameArt Name=Money Farm 2 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1848 ID=3161 Provider=GameArt Name=MoneyFarm2 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1852 ID=3198 Provider=GameArt Name=Monkey Pirates cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1878 ID=2199 Provider=Betsoft Name=MoreGoldDiggin cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>1917 ID=3207 Provider=GameArt Name=Nefertiti's Nile cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1937 ID=3194 Provider=GameArt Name=Norns' Fate cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1962 ID=2218 Provider=Betsoft Name=Once Upon A Time cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>1973 ID=2183 Provider=Betsoft Name=PacoandthePoppingPeppers cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2006 ID=3181 Provider=GameArt Name=Peter'sUniverse cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2020 ID=3259 Provider=GameArt Name=Piggy Bjorn 2 - Winter is Coming cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2021 ID=3224 Provider=GameArt Name=Piggy Bjorn Muspelheim's Treasure cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2022 ID=3190 Provider=GameArt Name=Piggy Holmes cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2028 ID=2220 Provider=Betsoft Name=Pinocchio cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2059 ID=1357 Provider=BGaming Name=Pontoon cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2083 ID=3133 Provider=GameArt Name=PowerDragon cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2107 ID=2163 Provider=Betsoft Name=Puppy Love Plus cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2121 ID=3238 Provider=GameArt Name=Queen Of The Seas cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2141 ID=3154 Provider=GameArt Name=RamsesTreasure cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2208 ID=4389 Provider=Yggdrasil Name=Rock the cash bar cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2230 ID=2210 Provider=Betsoft Name=Rook's Revenge cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2241 ID=3212 Provider=GameArt Name=Royal Gems cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2260 ID=2171 Provider=Betsoft Name=Safari Sam cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2270 ID=3230 Provider=GameArt Name=Santa's Factory cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2324 ID=1322 Provider=BGaming Name=Sic Bo cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2327 ID=1321 Provider=BGaming Name=Sic Bo Macau cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2332 ID=2254 Provider=Betsoft Name=Single Deck Blackjack cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2357 ID=3184 Provider=GameArt Name=SlotOfMoney cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2383 ID=3217 Provider=GameArt Name=Spartans Legacy cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2409 ID=3214 Provider=GameArt Name=Star Cash cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2428 ID=3213 Provider=GameArt Name=Storming Flame cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2429 ID=3246 Provider=GameArt Name=Striking Joker cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2444 ID=2201 Provider=Betsoft Name=Sugar Pop cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2445 ID=2203 Provider=Betsoft Name=Sugar Pop 2 cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2470 ID=3226 Provider=GameArt Name=Super Heated Sevens cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2488 ID=3254 Provider=GameArt Name=Surfin' Joker cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2491 ID=2168 Provider=Betsoft Name=Sushi Bar cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2492 ID=3225 Provider=GameArt Name=Sushi Yatta cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2527 ID=3232 Provider=GameArt Name=Tesla cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2531 ID=3159 Provider=GameArt Name=Texas Rangers Reward cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2551 ID=2170 Provider=Betsoft Name=The Exterminator cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2587 ID=2222 Provider=Betsoft Name=The True Sheriff cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2593 ID=2221 Provider=Betsoft Name=TheCuriousMachinePlus cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2619 ID=3162 Provider=GameArt Name=Thunder Bird cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2698 ID=2176 Provider=Betsoft Name=True Illusions cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2715 ID=2169 Provider=Betsoft Name=Under the Bed cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2716 ID=2181 Provider=Betsoft Name=UndertheSea cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2744 ID=3123 Provider=GameArt Name=Venetia cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2748 ID=2175 Provider=Betsoft Name=Viking Age cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2796 ID=2162 Provider=Betsoft Name=Weekend In Vegas cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2842 ID=3251 Provider=GameArt Name=Wild Marmalade cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2852 ID=1311 Provider=BGaming Name=Wild Texas cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2859 ID=3253 Provider=GameArt Name=Wild Wild Fruit cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2864 ID=3122 Provider=GameArt Name=WildDolphin cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2889 ID=3193 Provider=GameArt Name=Wolf Hunt cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2897 ID=3127 Provider=GameArt Name=WolfQuest cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2918 ID=3249 Provider=GameArt Name=Xtreme Summer Hot cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1794  Game ID = 4738  Game Provider Name = Evoplay   Game Name =  Mega Greatest Catch Bоnus Buy  cod = 403   src = https://agstatic.com/games/evoplay/mega_greatest_catch_b?nus_buy.jpg</t>
+  </si>
+  <si>
+    <t>2096  Game ID = 1516  Game Provider Name = PragmaticPlay   Game Name =  PromoWin  cod = 403   src = https://resources.betzmark.com/products/</t>
+  </si>
+  <si>
+    <t>2672  Game ID = 4739  Game Provider Name = Evoplay   Game Name =  Treasure-snipes: Christmas  cod = 403   src = https://agstatic.com/games/evoplay/treasure_snipes_?hristmas.jpg</t>
   </si>
 </sst>
 </file>
@@ -1692,108 +2175,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="195.3125"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1808,9 +2190,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A525"/>
+  <dimension ref="A1:A158"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1821,2627 +2203,792 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>545</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>546</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>547</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>548</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>551</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>554</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>555</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>556</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>557</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>558</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>559</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>560</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>561</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>562</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>563</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>564</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>565</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>566</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>567</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>568</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>569</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>570</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>571</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>572</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>573</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>574</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>575</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>576</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>577</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>578</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>579</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>580</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>581</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>582</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>583</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>584</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>585</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>586</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>587</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>588</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>589</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>590</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>591</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>592</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>593</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>594</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>595</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>596</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>597</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>598</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>599</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>600</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>601</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>602</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>603</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>604</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>605</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>606</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>79</v>
+        <v>607</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>80</v>
+        <v>608</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>81</v>
+        <v>609</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>82</v>
+        <v>610</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>83</v>
+        <v>611</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>84</v>
+        <v>612</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>85</v>
+        <v>613</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>86</v>
+        <v>614</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>87</v>
+        <v>615</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>88</v>
+        <v>616</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>617</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>90</v>
+        <v>618</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>91</v>
+        <v>619</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>92</v>
+        <v>620</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>621</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>94</v>
+        <v>622</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>95</v>
+        <v>623</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>96</v>
+        <v>624</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>97</v>
+        <v>625</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>98</v>
+        <v>626</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>99</v>
+        <v>627</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>100</v>
+        <v>628</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>101</v>
+        <v>629</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>102</v>
+        <v>630</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>103</v>
+        <v>631</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>104</v>
+        <v>632</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>105</v>
+        <v>633</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>106</v>
+        <v>634</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>107</v>
+        <v>635</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>108</v>
+        <v>636</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>109</v>
+        <v>637</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>110</v>
+        <v>638</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>111</v>
+        <v>639</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>112</v>
+        <v>640</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>113</v>
+        <v>641</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>114</v>
+        <v>642</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>115</v>
+        <v>643</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>116</v>
+        <v>644</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>117</v>
+        <v>645</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>118</v>
+        <v>646</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>119</v>
+        <v>647</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>120</v>
+        <v>648</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>121</v>
+        <v>649</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>122</v>
+        <v>650</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>123</v>
+        <v>651</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>124</v>
+        <v>652</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>125</v>
+        <v>653</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>126</v>
+        <v>654</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>127</v>
+        <v>655</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>128</v>
+        <v>656</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>129</v>
+        <v>657</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>130</v>
+        <v>658</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>131</v>
+        <v>659</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>132</v>
+        <v>660</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>133</v>
+        <v>661</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>134</v>
+        <v>662</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>135</v>
+        <v>663</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>136</v>
+        <v>664</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>137</v>
+        <v>665</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>138</v>
+        <v>666</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>139</v>
+        <v>667</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>140</v>
+        <v>668</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>141</v>
+        <v>669</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>142</v>
+        <v>670</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>143</v>
+        <v>671</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>144</v>
+        <v>672</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>145</v>
+        <v>673</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>146</v>
+        <v>674</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>147</v>
+        <v>675</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>148</v>
+        <v>676</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>149</v>
+        <v>677</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>150</v>
+        <v>678</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>151</v>
+        <v>679</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>152</v>
+        <v>680</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>153</v>
+        <v>681</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>154</v>
+        <v>682</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>155</v>
+        <v>683</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>156</v>
+        <v>684</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>157</v>
+        <v>685</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>158</v>
+        <v>686</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>159</v>
+        <v>687</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>160</v>
+        <v>688</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>161</v>
+        <v>689</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>162</v>
+        <v>690</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>163</v>
+        <v>691</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>164</v>
+        <v>692</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>165</v>
+        <v>693</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>166</v>
+        <v>694</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>167</v>
+        <v>695</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>168</v>
+        <v>696</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>169</v>
+        <v>697</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>170</v>
+        <v>698</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>171</v>
+        <v>699</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>172</v>
+        <v>700</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>173</v>
+        <v>701</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="s">
-        <v>541</v>
+        <v>702</v>
       </c>
     </row>
   </sheetData>
@@ -4449,7 +2996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -4462,17 +3009,118 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>542</v>
+        <v>703</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>543</v>
+        <v>704</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>544</v>
+        <v>705</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="195.3125"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
